--- a/sources.xlsx
+++ b/sources.xlsx
@@ -1,47 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/my-news/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F46197-847A-444C-A20E-98ADDE6BBA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB113C-8DFC-D049-BE97-ADA9808F317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="42480" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sources!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sources!$C$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>prompt_topic</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>RSS</t>
   </si>
@@ -58,42 +40,12 @@
     <t>Business, Markets, and Finance News</t>
   </si>
   <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Danas</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>https://www.danas.rs/feed/</t>
-  </si>
-  <si>
-    <t>News in Serbia</t>
-  </si>
-  <si>
-    <t>Politika</t>
-  </si>
-  <si>
-    <t>https://www.politika.rs/sr/rss</t>
-  </si>
-  <si>
-    <t>Blic</t>
-  </si>
-  <si>
-    <t>https://www.blic.rs/rss</t>
-  </si>
-  <si>
     <t>WSJ - World News</t>
   </si>
   <si>
     <t>https://feeds.content.dowjones.io/public/rss/RSSWorldNews</t>
   </si>
   <si>
-    <t>Hidden</t>
-  </si>
-  <si>
     <t>WSJ - Markets</t>
   </si>
   <si>
@@ -127,30 +79,6 @@
     <t>Telegram</t>
   </si>
   <si>
-    <t>CyberspecNews</t>
-  </si>
-  <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>https://t.me/CyberspecNews</t>
-  </si>
-  <si>
-    <t>Russian-Ukraine War</t>
-  </si>
-  <si>
-    <t>@NewsSerbia</t>
-  </si>
-  <si>
-    <t>https://t.me/NewsSerbia</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>https://t.me/RVvoenkor</t>
-  </si>
-  <si>
     <t>News</t>
   </si>
   <si>
@@ -196,16 +124,22 @@
     <t>https://t.me/defi_cryptonews</t>
   </si>
   <si>
-    <t>https://www.danas.rs</t>
-  </si>
-  <si>
-    <t>https://www.politika.rs</t>
-  </si>
-  <si>
-    <t>https://www.blic.rs</t>
-  </si>
-  <si>
-    <t>https://www.politika.rs/scc/najnovije-vesti</t>
+    <t>bool_visbility</t>
+  </si>
+  <si>
+    <t>desc_channel</t>
+  </si>
+  <si>
+    <t>desc_name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>desc_topic_secondary</t>
+  </si>
+  <si>
+    <t>desc_topic_primary</t>
   </si>
 </sst>
 </file>
@@ -1066,506 +1000,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
         <v>22</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
-      <sortCondition ref="C1:C25"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="C1:F1" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sources.xlsx
+++ b/sources.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanstruk/Documents/GitHub/good-news/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB113C-8DFC-D049-BE97-ADA9808F317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5D5AD3-6667-3842-91C1-04A069227C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42480" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
+    <workbookView xWindow="42480" yWindow="3200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AC684F59-F628-C54A-AD30-D4C8ABAC84A6}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
+    <sheet name="blocked_domains" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sources!$C$1:$F$1</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>RSS</t>
   </si>
@@ -140,6 +141,15 @@
   </si>
   <si>
     <t>desc_topic_primary</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>finance.yahoo.com</t>
+  </si>
+  <si>
+    <t>bloomberg.com</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1300,4 +1310,34 @@
   <autoFilter ref="C1:F1" xr:uid="{19E55AEB-D2F4-EE41-86F8-038347F2C987}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A4B157-2370-6347-AE30-C440E2E17D8E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>